--- a/data/trans_dic/P55_1-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P55_1-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede irse de vacaciones al menos una semana al año</t>
+          <t>Población que no puede irse de vacaciones al menos una semana al año (tasa de respuesta: 98,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>76,1%</t>
+          <t>77,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>70,23%</t>
+          <t>84,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>73,05%</t>
+          <t>71,94%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>70,89%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>74,44%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>77,28%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,25; 82,8</t>
+          <t>59,72; 85,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>64,79; 76,95</t>
+          <t>78,09; 90,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66,5; 77,14</t>
+          <t>64,87; 78,04</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>63,61; 77,44</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>64,39; 79,34</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>71,68; 82,0</t>
         </is>
       </c>
     </row>
@@ -606,17 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>68,93%</t>
+          <t>71,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>63,42%</t>
+          <t>80,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,14%</t>
+          <t>74,45%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>63,87%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>73,08%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>71,99%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,88; 75,14</t>
+          <t>62,26; 79,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54,92; 70,11</t>
+          <t>71,95; 86,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>60,11; 70,96</t>
+          <t>67,09; 81,06</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>49,7; 71,74</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>66,81; 78,39</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>64,55; 77,75</t>
         </is>
       </c>
     </row>
@@ -656,17 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>69,56%</t>
+          <t>58,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>58,84%</t>
+          <t>54,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>67,47%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>67,49%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>63,1%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>60,94%</t>
         </is>
       </c>
     </row>
@@ -679,17 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,36; 85,29</t>
+          <t>24,83; 84,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,3; 70,57</t>
+          <t>23,09; 82,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>49,96; 73,62</t>
+          <t>49,18; 81,65</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>48,54; 81,94</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>41,58; 78,19</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>39,46; 76,17</t>
         </is>
       </c>
     </row>
@@ -706,17 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>72,45%</t>
+          <t>72,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>66,32%</t>
+          <t>79,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>69,33%</t>
+          <t>72,5%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>67,81%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>72,68%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>73,43%</t>
         </is>
       </c>
     </row>
@@ -729,28 +880,644 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>65,7; 77,18</t>
+          <t>61,88; 79,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,84; 70,51</t>
+          <t>70,84; 84,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,84; 72,78</t>
+          <t>68,35; 77,34</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>61,7; 73,03</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>66,8; 76,4</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>68,39; 77,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede irse de vacaciones al menos una semana al año (tasa de respuesta: 98,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>289922</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>423352</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>284181</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>397215</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>574104</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>820567</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>224685; 322950</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>391629; 453197</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>256219; 308238</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>356402; 433923</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>496582; 611930</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>761064; 870703</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>226658</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>331558</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>243679</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>273126</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>470337</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>604685</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>196897; 252946</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>296668; 358070</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>219577; 265331</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>212550; 306800</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>429936; 504483</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>542182; 653039</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>50398</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>65466</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>55700</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>75153</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>106097</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>140619</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21251; 72468</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27565; 98042</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>40596; 67405</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>54047; 91238</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>69916; 131467</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>91058; 175762</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>522.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>536.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>566978</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>820376</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>583561</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>745495</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1150539</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1565871</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>481481; 618818</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>731906; 872832</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>550116; 622503</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>678278; 802868</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1057426; 1209453</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1458361; 1648739</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>